--- a/biology/Médecine/Alfred_Vogel/Alfred_Vogel.xlsx
+++ b/biology/Médecine/Alfred_Vogel/Alfred_Vogel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Vogel, né le 26 octobre 1902 à Aesch et mort le 1er octobre 1996 à Feusisberg[2], est un naturopathe[N 1], herboriste, écrivain et nutritionniste suisse. Figurant parmi les pionniers suisses de la phytothérapie[3], il est également le fondateur de l'entreprise pharmaceutique suisse Bioforce[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Vogel, né le 26 octobre 1902 à Aesch et mort le 1er octobre 1996 à Feusisberg, est un naturopathe[N 1], herboriste, écrivain et nutritionniste suisse. Figurant parmi les pionniers suisses de la phytothérapie, il est également le fondateur de l'entreprise pharmaceutique suisse Bioforce.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Max Vogel naît le 26 octobre 1902 à Aesch dans le canton de Bâle en Suisse[5]. Il est le cadet d'entre quatre frères et sœurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Max Vogel naît le 26 octobre 1902 à Aesch dans le canton de Bâle en Suisse. Il est le cadet d'entre quatre frères et sœurs.
 Enfant, il se familiarise avec les plantes médicinales grâce à son père et à ses grands-parents. À 21 ans, il s'installe à Bâle où il ouvre une herboristerie et magasin de diététique[trad 1]. Il partage ses conceptions de la vie et ses connaissances avec sa clientèle tout en s'initiant peu à peu à la préparation de remèdes naturels, dont il commercialise dès lors sa propre production.
-En 1927, il épouse Sophie Sommer, institutrice[5]. De cette union naissent deux filles.
-En 1929 il commence la publication du magazine mensuel, « La nouvelle vie[trad 2] qui, en 1941, est renommé en A. Vogel Gesundheits-Nachrichten ; en 2011 cette revue tire 26 417 exemplaires[5]. Au cours des années 1930, il déménage à Teufen en Appenzell où il expérimente d'autres remèdes à base de plantes. Il constate que les plantes utilisées immédiatement après cueillette sont plus efficaces que les celles traitées par dessiccation.
+En 1927, il épouse Sophie Sommer, institutrice. De cette union naissent deux filles.
+En 1929 il commence la publication du magazine mensuel, « La nouvelle vie[trad 2] qui, en 1941, est renommé en A. Vogel Gesundheits-Nachrichten ; en 2011 cette revue tire 26 417 exemplaires. Au cours des années 1930, il déménage à Teufen en Appenzell où il expérimente d'autres remèdes à base de plantes. Il constate que les plantes utilisées immédiatement après cueillette sont plus efficaces que les celles traitées par dessiccation.
 Passionné de voyages, Vogel visite de nouveaux pays et découvre de nouvelles cultures. Il se focalise sur la rencontre des peuples primitifs qui, selon lui, entretiennent une relation étroite avec la nature. À partir des années 1950, il parcourt l'essentiel du continent américain. Il se rend également en Afrique, en Australie, en Nouvelle-Zélande et en Tasmanie. Au cours de l'un de ses périples aux États-Unis, il sympathise avec le peuple sioux chez qui il cohabite durant quelque temps. C'est à cette occasion qu'il se lie d'amitié avec le médecin-guérisseur Ben Black Elk qui lui transmet le savoir issu de la tradition amérindienne relative à l'usage médicinal des plantes[H 1]. Avant que Vogel ne quitte ses hôtes, Ben Black Elk lui offre un cadeau d'adieu : une poignée de graines d'Echinacea purpurea (échinacée pourpre). Les Sioux connaissent cette plante depuis des générations et l'utilisent comme remède polyvalent : en usage externe pour les morsures de serpent, les blessures et des contusions ; en usage interne pour renforcer le système immunitaire[réf. nécessaire].
 Vogel ramène la semence en Suisse[H 2] puis commence à la cultiver et à effectuer des recherches complémentaires à son sujet, ce qui aboutira à la création d'Echinaforce qui deviendra le produit phare de l'entreprise de produits pharmaceutiques naturels Bioforce créée à son initiative en 1963 à Roggwil dans le canton de Thurgovie.
 Alfred Vogel meurt le 1er octobre 1996 à Feusisberg, à l'âge de 94 ans.
@@ -548,7 +562,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1982, Alfred Vogel est gratifié de la médaille Priessnitz par la Société des naturopathes[N 1] allemands[trad 3].
 Par ailleurs, la Fondation Alfred Vogel décerne chaque année un prix Alfred Vogel récompensant la recherche scientifique dans le domaine de la naturopathie.
@@ -580,7 +596,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) DrAlfred Vogel, Kleiner Wegweiser für die Lebensreform [« Petit guide pour réformer sa vie »], 1926
 (de) Alfred Max Vogel, Die Nahrung als Heilfaktor : leicht verständliche Einführung in das Wesen zweckmässiger Ernährung und natürlicher Lebensweise [« L'alimentation qui guérit : premier pas dans le régime le plus rapide à mettre en pratique, basé sur un mode de vie naturel »], Trogen, Das neue Leben, 1935 (OCLC 80010720)
